--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBFF894-69D1-4078-80D2-378D66E7477A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DF9630-B61D-48FD-A26A-7B0198CBFF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
   <si>
     <r>
       <rPr>
@@ -2115,21 +2115,6 @@
   </si>
   <si>
     <t>settings</t>
-  </si>
-  <si>
-    <t>iam_menu-90</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation</t>
-  </si>
-  <si>
-    <t>协作</t>
-  </si>
-  <si>
-    <t>XZ</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>iam_menu-91</t>
@@ -2623,11 +2608,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2638,10 +2627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3010,11 +2995,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -3023,21 +3008,21 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3148,11 +3133,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="30" t="s">
@@ -3190,19 +3175,19 @@
       <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="32" t="s">
@@ -3227,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3349,19 +3334,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -3373,7 +3358,7 @@
         <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
         <v>78</v>
@@ -3385,7 +3370,7 @@
         <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
         <v>76</v>
@@ -3399,41 +3384,41 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-90</v>
+        <v>iam_menu-121</v>
       </c>
       <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="7">
-        <v>50</v>
+      <c r="M9" t="s">
+        <v>81</v>
       </c>
       <c r="N9" t="s">
         <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q9" t="s">
         <v>76</v>
@@ -3442,7 +3427,7 @@
         <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T9" t="s">
         <v>76</v>
@@ -3454,93 +3439,100 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
+    <row r="10" spans="1:25" s="5" customFormat="1">
+      <c r="E10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="5" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-121</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="5">
+        <v>70</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S10" t="s">
-        <v>103</v>
-      </c>
-      <c r="T10" t="s">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="V10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
         <v>75</v>
       </c>
       <c r="K11" t="str">
-        <f>菜单SAAS版!$E$10</f>
+        <f>E8</f>
         <v>iam_menu-121</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" t="s">
-        <v>81</v>
+      <c r="M11" s="7">
+        <v>50</v>
       </c>
       <c r="N11" t="s">
         <v>78</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Q11" t="s">
         <v>76</v>
@@ -3549,7 +3541,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="T11" t="s">
         <v>76</v>
@@ -3558,63 +3550,6 @@
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="5" customFormat="1">
-      <c r="E12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="5">
-        <v>70</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3626,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3673,64 +3608,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="L7" t="s">
         <v>116</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>117</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N7" t="s">
         <v>118</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>119</v>
-      </c>
-      <c r="K7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="D8" s="1"/>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>137</v>
+        <v>121</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -3752,124 +3687,106 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" t="s">
         <v>129</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G11" t="str">
-        <f>菜单SAAS版!E8</f>
-        <v>iam_menu-90</v>
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-91</v>
       </c>
       <c r="H11" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I11" s="39" t="s">
-        <v>138</v>
+      <c r="I11" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G12" t="str">
-        <f>菜单SAAS版!E9</f>
-        <v>iam_menu-91</v>
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-121</v>
       </c>
       <c r="H12" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>138</v>
+      <c r="I12" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G13" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-121</v>
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-122</v>
       </c>
       <c r="H13" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I13" s="39" t="s">
-        <v>138</v>
+      <c r="I13" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G14" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-122</v>
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-235</v>
       </c>
       <c r="H14" t="str">
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I14" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" t="str">
-        <f>菜单SAAS版!E12</f>
-        <v>iam_menu-235</v>
-      </c>
-      <c r="H15" t="str">
-        <f>E8</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>138</v>
+      <c r="I14" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DF9630-B61D-48FD-A26A-7B0198CBFF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673F85F-6213-460E-B9EE-E879CC676059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -2142,9 +2142,6 @@
   </si>
   <si>
     <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>iam_menu-122</t>
@@ -3214,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3357,8 +3354,8 @@
       <c r="L8" t="s">
         <v>77</v>
       </c>
-      <c r="M8" t="s">
-        <v>99</v>
+      <c r="M8">
+        <v>100</v>
       </c>
       <c r="N8" t="s">
         <v>78</v>
@@ -3384,10 +3381,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
         <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>87</v>
@@ -3418,7 +3415,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9" t="s">
         <v>76</v>
@@ -3427,7 +3424,7 @@
         <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T9" t="s">
         <v>76</v>
@@ -3441,10 +3438,10 @@
     </row>
     <row r="10" spans="1:25" s="5" customFormat="1">
       <c r="E10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>84</v>
@@ -3475,7 +3472,7 @@
         <v>86</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>76</v>
@@ -3484,7 +3481,7 @@
         <v>76</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>76</v>
@@ -3563,7 +3560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
@@ -3608,64 +3605,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>112</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>113</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>114</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>115</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>116</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>117</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>118</v>
-      </c>
-      <c r="O7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="D8" s="1"/>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -3687,33 +3684,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" t="s">
         <v>128</v>
-      </c>
-      <c r="I10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -3724,15 +3721,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -3743,15 +3740,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -3762,15 +3759,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -3781,7 +3778,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673F85F-6213-460E-B9EE-E879CC676059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -35,7 +29,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -54,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -67,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -86,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -105,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -124,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -156,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -175,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -194,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -216,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -237,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -258,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -279,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -300,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -312,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -331,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -343,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -362,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -381,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -400,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -419,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -467,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -486,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -505,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -524,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -536,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -555,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -574,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -594,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -613,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -633,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -652,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -664,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -683,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -702,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -726,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -745,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -764,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -783,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -802,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -814,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -833,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -844,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -865,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -876,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -895,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -914,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -938,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -957,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -977,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -997,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1017,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1038,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1058,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1093,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1114,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1126,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1145,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1166,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1185,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1198,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1217,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1236,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1255,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1270,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1289,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1308,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1327,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1346,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1362,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1372,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1391,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1407,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1417,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1436,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1451,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1470,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1489,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1509,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1533,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1552,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1571,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1591,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1612,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1623,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1633,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1645,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1664,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1683,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1702,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1722,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1741,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1760,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1780,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1799,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1818,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1837,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1857,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1869,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1880,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1890,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1902,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1921,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1933,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1952,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1972,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2072,6 +1960,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>iam_menu-121</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2087,16 +1987,37 @@
     <t>api</t>
   </si>
   <si>
+    <t>iam_menu-122</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
     <t>menu</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>SZ</t>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>/iam/project-setting/info</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>iam_menu-235</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.client</t>
   </si>
   <si>
     <t>客户端</t>
@@ -2108,13 +2029,10 @@
     <t>airplay</t>
   </si>
   <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>settings</t>
+    <t>/iam/pro-client</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
   </si>
   <si>
     <t>iam_menu-91</t>
@@ -2138,36 +2056,6 @@
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
   </si>
   <si>
-    <t>iam_menu-121</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>iam_menu-122</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>iam_menu-235</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>/iam/pro-client</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2204,13 +2092,19 @@
     <t>visible_flag</t>
   </si>
   <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>N_TEST_MENU</t>
+  </si>
+  <si>
     <t>MENU</t>
   </si>
   <si>
     <t>TENANT</t>
   </si>
   <si>
-    <t>iam_label-13</t>
+    <t>标识测试管理菜单</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -2237,22 +2131,20 @@
     <t>*</t>
   </si>
   <si>
-    <t>N_TEST_MENU</t>
-  </si>
-  <si>
-    <t>标识测试管理菜单</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2263,25 +2155,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2327,6 +2225,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2348,6 +2403,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2355,14 +2417,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2371,43 +2437,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2438,8 +2469,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2540,10 +2757,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2551,44 +3010,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2598,38 +3073,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2702,9 +3208,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2962,272 +3465,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="11" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="36" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="12"/>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="38" t="s">
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="16" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="22" t="s">
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="27" t="s">
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="30" t="s">
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="30" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="30" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="30" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="32" t="s">
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="58.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.21875" customWidth="1"/>
-    <col min="16" max="16" width="28.44140625" customWidth="1"/>
-    <col min="19" max="19" width="135.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="58.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="26.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="27.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="25.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="28.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="135.222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3241,7 +3747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3329,235 +3835,236 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>98</v>
-      </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
-      </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" t="s">
-        <v>75</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-121</v>
       </c>
       <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>76</v>
-      </c>
       <c r="R9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="5:24">
+      <c r="E10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="5" customFormat="1">
-      <c r="E10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="5" t="str">
+      <c r="K10" s="8" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="8">
+        <v>90</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="5">
-        <v>70</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V10" s="5" t="s">
+      <c r="R10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24">
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
         <v>79</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
       </c>
       <c r="K11" t="str">
         <f>E8</f>
         <v>iam_menu-121</v>
       </c>
       <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="5">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3566,13 +4073,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3586,7 +4093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3644,39 +4151,39 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="4:15">
       <c r="D8" s="1"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="H8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>78</v>
+      <c r="O8" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3684,33 +4191,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -3720,16 +4227,16 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -3739,16 +4246,16 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -3758,16 +4265,16 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -3777,13 +4284,13 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="7" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -2054,6 +2054,27 @@
   </si>
   <si>
     <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.saga-instance</t>
+  </si>
+  <si>
+    <t>事务管理</t>
+  </si>
+  <si>
+    <t>SWGL</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>/asgard/project-saga-instance</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation|choerodon.code.project.operation.saga-instance</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2139,12 +2160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2173,12 +2194,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2225,11 +2240,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2242,7 +2286,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2250,6 +2301,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2263,46 +2321,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2317,69 +2370,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2403,13 +2412,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2422,12 +2424,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2471,7 +2467,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,13 +2545,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2501,157 +2647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,25 +2755,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2806,17 +2793,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2835,176 +2851,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3013,57 +3009,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3076,7 +3071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3482,7 +3477,7 @@
     <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -3496,79 +3491,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3576,56 +3571,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3635,64 +3630,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3715,10 +3710,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4056,6 +4051,63 @@
         <v>82</v>
       </c>
     </row>
+    <row r="12" spans="5:24">
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f>E8</f>
+        <v>iam_menu-121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4065,10 +4117,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4112,64 +4164,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4191,33 +4243,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4228,15 +4280,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4247,15 +4299,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4266,15 +4318,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4285,7 +4337,26 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H15" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/test-manager-service/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD2522-8B9E-484C-9F35-A04E6AE251EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="2060" yWindow="4740" windowWidth="20500" windowHeight="13080" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +46,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -38,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -47,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -68,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -77,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -86,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -95,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -104,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -113,6 +139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -153,6 +181,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -162,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -171,6 +201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -180,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -189,6 +221,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -201,6 +234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -211,6 +245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -221,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -231,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -241,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -252,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -261,6 +300,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -272,6 +312,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -281,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -301,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -310,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -330,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -339,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -348,6 +396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -357,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -366,6 +416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -375,6 +426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -384,6 +436,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -393,6 +446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -402,6 +456,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -431,6 +486,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -440,6 +496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -449,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -458,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -467,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -476,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -485,6 +546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -494,6 +556,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -514,6 +578,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -523,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -532,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -541,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -550,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -560,6 +629,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -569,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -578,6 +649,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -587,6 +659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -597,6 +670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -606,6 +680,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -615,6 +690,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -635,6 +712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -644,6 +722,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -653,6 +732,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -662,6 +742,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -676,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -685,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -694,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -703,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -712,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -721,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -730,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -739,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -748,6 +837,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -777,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -786,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -806,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -816,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -835,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -844,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -853,6 +953,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -862,6 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -876,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -885,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -894,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -903,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -912,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -922,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -931,6 +1039,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -941,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -950,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -960,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -969,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -980,6 +1093,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -989,6 +1103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -999,6 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1008,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1024,6 +1141,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1033,6 +1151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1044,6 +1163,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1053,6 +1173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1073,6 +1195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1082,6 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1091,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1102,6 +1227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1111,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1120,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1141,6 +1270,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1150,6 +1280,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1159,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1168,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1177,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1186,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1209,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1218,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1227,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1236,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1245,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1254,6 +1395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1263,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1272,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1305,6 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1314,6 +1461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1477,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1347,6 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1356,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1379,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1388,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1397,6 +1552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1406,6 +1562,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1415,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1425,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1434,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1448,6 +1608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1457,6 +1618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1466,6 +1628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1475,6 +1638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1484,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1493,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1503,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1512,6 +1679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1523,6 +1691,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1702,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1562,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1571,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1580,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1589,6 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1598,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1607,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1617,6 +1795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1626,6 +1805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1635,6 +1815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1644,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1653,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1662,6 +1845,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1671,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1681,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1690,6 +1876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1699,6 +1886,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1708,6 +1896,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1717,6 +1906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1726,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1735,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1744,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1754,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1804,6 +2002,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1813,6 +2012,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +2024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1833,6 +2034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1842,6 +2044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1851,6 +2054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1861,6 +2065,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2005,9 +2210,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>settings</t>
-  </si>
-  <si>
     <t>/iam/project-setting/info</t>
   </si>
   <si>
@@ -2026,9 +2228,6 @@
     <t>KHD</t>
   </si>
   <si>
-    <t>airplay</t>
-  </si>
-  <si>
     <t>/iam/pro-client</t>
   </si>
   <si>
@@ -2047,9 +2246,6 @@
     <t>TDCY</t>
   </si>
   <si>
-    <t>IAM</t>
-  </si>
-  <si>
     <t>/iam/team-member</t>
   </si>
   <si>
@@ -2068,15 +2264,9 @@
     <t>SWGL</t>
   </si>
   <si>
-    <t>ballot</t>
-  </si>
-  <si>
     <t>/asgard/project-saga-instance</t>
   </si>
   <si>
-    <t>choerodon.code.project.operation|choerodon.code.project.operation.saga-instance</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2153,19 +2343,28 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting|choerodon.code.project.operation.saga-instance</t>
+  </si>
+  <si>
+    <t>settings-o</t>
+  </si>
+  <si>
+    <t>laptop_windows</t>
+  </si>
+  <si>
+    <t>supervisor_account-o</t>
+  </si>
+  <si>
+    <t>developer_board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2176,36 +2375,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2213,187 +2414,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2413,28 +2469,52 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF203764"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2465,194 +2545,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2753,254 +2647,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3021,20 +2673,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3068,9 +2708,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3078,59 +2715,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3203,6 +2810,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3460,275 +3070,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="58.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="26.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="27.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="25.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="28.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="135.222222222222" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="135.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3742,7 +3349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3830,7 +3437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -3880,7 +3487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -3913,10 +3520,10 @@
         <v>82</v>
       </c>
       <c r="O9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" t="s">
         <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
       </c>
       <c r="Q9" t="s">
         <v>80</v>
@@ -3925,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
         <v>80</v>
@@ -3937,21 +3544,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="5:24">
+    <row r="10" spans="1:25" s="8" customFormat="1">
       <c r="E10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -3969,11 +3576,11 @@
       <c r="N10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>97</v>
+      <c r="O10" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>80</v>
@@ -3982,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>80</v>
@@ -3994,21 +3601,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
         <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" t="s">
-        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -4026,11 +3633,11 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>104</v>
+      <c r="O11" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
@@ -4039,7 +3646,7 @@
         <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T11" t="s">
         <v>80</v>
@@ -4051,21 +3658,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
         <v>107</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" t="s">
-        <v>110</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -4083,11 +3690,11 @@
       <c r="N12" t="s">
         <v>82</v>
       </c>
-      <c r="O12" t="s">
-        <v>111</v>
+      <c r="O12" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q12" t="s">
         <v>80</v>
@@ -4096,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="T12" t="s">
         <v>80</v>
@@ -4109,29 +3716,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4145,7 +3751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4164,64 +3770,64 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="L7" t="s">
         <v>117</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>118</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N7" t="s">
         <v>119</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>120</v>
       </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15">
+    </row>
+    <row r="8" spans="1:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -4235,7 +3841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4243,33 +3849,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9">
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4280,15 +3886,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4299,15 +3905,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4318,15 +3924,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4337,15 +3943,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4356,12 +3962,12 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -1,52 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/test-manager-service/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD2522-8B9E-484C-9F35-A04E6AE251EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="4740" windowWidth="20500" windowHeight="13080" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7410" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
     <sheet name="菜单标签数据" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +41,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -66,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -79,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -89,7 +71,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -99,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -109,7 +89,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -119,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -129,7 +107,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -139,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -171,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -181,7 +156,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -191,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -201,7 +174,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -211,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -221,7 +192,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -234,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -245,7 +214,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -256,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -267,7 +234,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -278,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -290,7 +255,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -300,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -312,7 +275,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -322,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -334,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -344,7 +304,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -354,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -366,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -376,7 +333,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -386,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -396,7 +351,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -406,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -416,7 +369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -426,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -436,7 +387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -446,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -456,7 +405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -486,7 +434,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -496,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -506,7 +452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -516,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -526,7 +470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -536,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -546,7 +488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -556,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -568,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -578,7 +517,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -588,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -598,7 +535,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -608,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -618,7 +553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -629,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -639,7 +572,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -649,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -659,7 +590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -670,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -680,7 +609,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -690,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -702,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -712,7 +638,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -722,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -732,7 +656,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -742,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -757,7 +679,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -767,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -777,7 +697,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -787,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -797,7 +715,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -807,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -817,7 +733,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -827,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -837,7 +751,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -847,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -859,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -869,7 +780,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -879,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -890,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -901,7 +809,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -912,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -923,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -933,7 +838,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -943,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -953,7 +856,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -963,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -978,7 +879,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -988,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -998,7 +897,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1008,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -1018,7 +915,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1029,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1039,7 +934,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1050,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1060,7 +953,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1071,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1081,7 +972,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1093,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1103,7 +992,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1114,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1124,7 +1011,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1141,7 +1027,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1151,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1163,7 +1047,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1173,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1185,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1195,7 +1076,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1205,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1215,7 +1094,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1227,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1237,7 +1114,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1247,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1260,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1270,7 +1144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1280,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1290,7 +1162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1300,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1310,7 +1180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1320,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1335,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1345,7 +1212,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1355,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1365,7 +1230,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1375,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1385,7 +1248,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1395,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1405,7 +1266,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1415,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1431,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1441,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1451,7 +1308,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1461,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1477,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1487,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1497,7 +1350,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1507,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1522,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1532,7 +1382,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1542,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1552,7 +1400,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1562,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1572,7 +1418,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1583,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1593,7 +1437,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1608,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1618,7 +1460,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1628,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1638,7 +1478,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1648,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1658,7 +1496,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1669,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1679,7 +1515,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1691,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1702,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1712,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1724,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1734,7 +1565,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1744,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1754,7 +1583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1764,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1774,7 +1601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1784,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1795,7 +1620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1805,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1815,7 +1638,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1825,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1835,7 +1656,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1845,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1855,7 +1674,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1866,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1876,7 +1693,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1886,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1896,7 +1711,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1906,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1916,7 +1729,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1926,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1936,7 +1747,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1947,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1959,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1970,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1980,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1992,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -2002,7 +1807,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2012,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -2024,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -2034,7 +1836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2044,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -2054,7 +1854,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2065,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2114,57 +1912,15 @@
     <t>name:en_US</t>
   </si>
   <si>
-    <t>h_quick_index</t>
-  </si>
-  <si>
     <t>#fd_level</t>
   </si>
   <si>
     <t>parent_id</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>h_custom_flag</t>
-  </si>
-  <si>
     <t>#h_tenant_id</t>
   </si>
   <si>
-    <t>h_level_path</t>
-  </si>
-  <si>
-    <t>h_virtual_flag</t>
-  </si>
-  <si>
-    <t>h_controller_type</t>
-  </si>
-  <si>
-    <t>h_permission_type</t>
-  </si>
-  <si>
-    <t>h_description</t>
-  </si>
-  <si>
-    <t>h_enabled_flag</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>iam_menu-121</t>
   </si>
   <si>
@@ -2174,144 +1930,117 @@
     <t>设置</t>
   </si>
   <si>
-    <t>SZ</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>root</t>
+    <t>iam_menu-122</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>iam_menu-235</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.client</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
+    <t>iam_menu-91</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation.team-member</t>
+  </si>
+  <si>
+    <t>团队成员</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.saga-instance</t>
+  </si>
+  <si>
+    <t>事务实例</t>
+  </si>
+  <si>
+    <t>iam_menu-124</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.developer</t>
+  </si>
+  <si>
+    <t>开发者</t>
+  </si>
+  <si>
+    <t>iam_menu-123</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.projectinfo-and-member</t>
+  </si>
+  <si>
+    <t>项目与成员</t>
+  </si>
+  <si>
+    <t>项目与成员XMYCY</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>N_TEST_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>iam_menu-122</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>iam_menu-235</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>/iam/pro-client</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.setting.client</t>
-  </si>
-  <si>
-    <t>iam_menu-91</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
-    <t>团队成员</t>
-  </si>
-  <si>
-    <t>TDCY</t>
-  </si>
-  <si>
-    <t>/iam/team-member</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.cooperation|choerodon.code.project.cooperation.team-member</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.saga-instance</t>
-  </si>
-  <si>
-    <t>事务管理</t>
-  </si>
-  <si>
-    <t>SWGL</t>
-  </si>
-  <si>
-    <t>/asgard/project-saga-instance</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>fd_level</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-13</t>
-  </si>
-  <si>
-    <t>N_TEST_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
     <t>TENANT</t>
   </si>
   <si>
@@ -2343,28 +2072,19 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting|choerodon.code.project.operation.saga-instance</t>
-  </si>
-  <si>
-    <t>settings-o</t>
-  </si>
-  <si>
-    <t>laptop_windows</t>
-  </si>
-  <si>
-    <t>supervisor_account-o</t>
-  </si>
-  <si>
-    <t>developer_board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2375,38 +2095,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2414,42 +2132,187 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2469,52 +2332,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF203764"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2545,8 +2384,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2647,12 +2672,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2673,8 +2940,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2708,6 +2987,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2715,29 +2997,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2811,11 +3123,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="README"/>
+      <sheetName val="菜单SAAS版"/>
+      <sheetName val="菜单标签数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>iam_menu-121</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3070,272 +3402,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
       <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="17" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="57">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="38">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="31" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="31" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="31" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="32" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
-      <c r="C27" s="33" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" customWidth="1"/>
-    <col min="19" max="19" width="135.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
+    <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
+    <col min="9" max="9" width="26.7111111111111" customWidth="1"/>
+    <col min="10" max="10" width="27.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3349,7 +3681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3360,7 +3692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3385,359 +3717,207 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="5:11">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s">
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" t="s">
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="S7" t="s">
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="T7" t="s">
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="str">
+        <f>E14</f>
+        <v>iam_menu-123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="5:11">
+      <c r="E10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U7" t="s">
+      <c r="F10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="V7" t="s">
+      <c r="G10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W7" t="s">
+      <c r="H10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f>E13</f>
+        <v>iam_menu-124</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="X7" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="E8" t="s">
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="str">
+        <f>E14</f>
+        <v>iam_menu-123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H12" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f>E13</f>
+        <v>iam_menu-124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J8" t="s">
+      <c r="F13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
+      <c r="G13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L8" t="s">
+      <c r="H13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f>[1]菜单SAAS版!$E$8</f>
+        <v>iam_menu-121</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="E14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M8">
-        <v>100</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="F14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="G14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
+      <c r="H14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="str">
-        <f>菜单SAAS版!$E$8</f>
+      <c r="I14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f>[1]菜单SAAS版!$E$8</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="8" customFormat="1">
-      <c r="E10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="8">
-        <v>90</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="str">
-        <f>E8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="5">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V11" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f>E8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>135</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" t="s">
-        <v>82</v>
+      <c r="K14" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="15.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="14.2814814814815" customWidth="1"/>
+    <col min="8" max="8" width="14.1407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,7 +3931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3770,78 +3950,78 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3849,33 +4029,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -3886,15 +4066,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -3905,15 +4085,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -3924,15 +4104,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -3943,15 +4123,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -3962,12 +4142,50 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-124</v>
+      </c>
+      <c r="H16" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-123</v>
+      </c>
+      <c r="H17" t="str">
+        <f>E8</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7410" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
     <sheet name="菜单标签数据" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -1915,9 +1912,6 @@
     <t>#fd_level</t>
   </si>
   <si>
-    <t>parent_id</t>
-  </si>
-  <si>
     <t>#h_tenant_id</t>
   </si>
   <si>
@@ -1942,7 +1936,7 @@
     <t>choerodon.code.project.setting.general-setting</t>
   </si>
   <si>
-    <t>通用</t>
+    <t>基础信息</t>
   </si>
   <si>
     <t>iam_menu-235</t>
@@ -1979,18 +1973,6 @@
   </si>
   <si>
     <t>开发者</t>
-  </si>
-  <si>
-    <t>iam_menu-123</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.projectinfo-and-member</t>
-  </si>
-  <si>
-    <t>项目与成员</t>
-  </si>
-  <si>
-    <t>项目与成员XMYCY</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2080,8 +2062,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -2160,59 +2142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2227,7 +2157,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2256,14 +2246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2272,15 +2254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2288,15 +2271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,6 +2280,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2386,7 +2368,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,25 +2422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,7 +2464,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2440,133 +2530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2673,17 +2655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2695,15 +2666,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2723,6 +2685,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2734,24 +2720,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2770,52 +2743,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2827,94 +2806,97 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3125,29 +3107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="菜单SAAS版"/>
-      <sheetName val="菜单标签数据"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>iam_menu-121</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3652,10 +3611,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3664,7 +3623,6 @@
     <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
     <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
     <col min="9" max="9" width="26.7111111111111" customWidth="1"/>
-    <col min="10" max="10" width="27.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3692,7 +3650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3720,177 +3678,127 @@
       <c r="I7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="3" t="s">
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="5:11">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J9" t="s">
         <v>64</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11">
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" s="8" customFormat="1" spans="5:10">
+      <c r="E10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J9" t="str">
-        <f>E14</f>
-        <v>iam_menu-123</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="5:11">
-      <c r="E10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="8" t="s">
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="8" t="str">
-        <f>E13</f>
-        <v>iam_menu-124</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
         <v>64</v>
       </c>
-      <c r="J11" t="str">
-        <f>E14</f>
-        <v>iam_menu-123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11">
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f>E13</f>
-        <v>iam_menu-124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11">
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f>[1]菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11">
-      <c r="E14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f>[1]菜单SAAS版!$E$8</f>
-        <v>iam_menu-121</v>
-      </c>
-      <c r="K14" s="5">
+        <v>63</v>
+      </c>
+      <c r="J13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3903,10 +3811,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3950,75 +3858,75 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>89</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4029,33 +3937,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I10" t="s">
         <v>104</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -4066,15 +3974,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -4085,15 +3993,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4104,15 +4012,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4123,15 +4031,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4142,15 +4050,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!E13</f>
@@ -4161,26 +4069,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" t="str">
-        <f>菜单SAAS版!E14</f>
-        <v>iam_menu-123</v>
-      </c>
-      <c r="H17" t="str">
-        <f>E8</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -1936,7 +1936,7 @@
     <t>choerodon.code.project.setting.general-setting</t>
   </si>
   <si>
-    <t>基础信息</t>
+    <t>项目基础信息</t>
   </si>
   <si>
     <t>iam_menu-235</t>
@@ -1972,7 +1972,7 @@
     <t>choerodon.code.project.setting.developer</t>
   </si>
   <si>
-    <t>开发者</t>
+    <t>开发</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2061,8 +2061,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2142,6 +2142,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2157,36 +2192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,24 +2206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2231,18 +2222,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2263,7 +2270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2271,20 +2278,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2368,7 +2368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,7 +2386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,7 +2410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,7 +2422,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,37 +2512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,7 +2524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,85 +2542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,16 +2685,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2718,185 +2738,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3614,7 +3614,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -1936,7 +1936,7 @@
     <t>choerodon.code.project.setting.general-setting</t>
   </si>
   <si>
-    <t>项目基础信息</t>
+    <t>基础信息</t>
   </si>
   <si>
     <t>iam_menu-235</t>
@@ -2061,9 +2061,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -2148,15 +2148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2170,7 +2171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2185,14 +2186,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,15 +2194,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2222,26 +2208,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2270,7 +2248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2284,9 +2262,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2374,7 +2374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2386,7 +2392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,7 +2416,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,61 +2470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,43 +2506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,19 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,6 +2655,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2687,11 +2698,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2701,6 +2719,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2719,49 +2752,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2770,133 +2770,133 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3613,8 +3613,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -1924,6 +1924,9 @@
     <t>设置</t>
   </si>
   <si>
+    <t>Set</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -1939,6 +1942,9 @@
     <t>基础信息</t>
   </si>
   <si>
+    <t>Details</t>
+  </si>
+  <si>
     <t>iam_menu-235</t>
   </si>
   <si>
@@ -1948,6 +1954,9 @@
     <t>客户端</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>iam_menu-91</t>
   </si>
   <si>
@@ -1957,6 +1966,9 @@
     <t>团队成员</t>
   </si>
   <si>
+    <t>Teammate</t>
+  </si>
+  <si>
     <t>iam_menu-12</t>
   </si>
   <si>
@@ -1966,6 +1978,9 @@
     <t>事务实例</t>
   </si>
   <si>
+    <t>Transaction Instance</t>
+  </si>
+  <si>
     <t>iam_menu-124</t>
   </si>
   <si>
@@ -1973,6 +1988,9 @@
   </si>
   <si>
     <t>开发</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2142,15 +2160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2166,6 +2176,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2178,23 +2195,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,15 +2230,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2232,38 +2287,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2280,13 +2305,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,7 +2386,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2386,91 +2494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,13 +2518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,7 +2530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,31 +2542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,17 +2673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2681,26 +2688,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2716,9 +2708,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2755,145 +2773,145 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3613,8 +3631,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3693,110 +3711,110 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="5:10">
       <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="5:10">
       <c r="E10" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="5:10">
       <c r="E11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="5:10">
       <c r="E12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="5:10">
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -3858,75 +3876,75 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3937,33 +3955,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!E11</f>
@@ -3974,15 +3992,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!E8</f>
@@ -3993,15 +4011,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!E9</f>
@@ -4012,15 +4030,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!E10</f>
@@ -4031,15 +4049,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!E12</f>
@@ -4050,15 +4068,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!E13</f>
@@ -4069,7 +4087,7 @@
         <v>iam_label-13</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-menu-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hand\choerodon\test-manager-service\src\main\resources\script\db\init-data\test_manager_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C1759D-5533-4CB6-8EDE-6EE8CAAF14A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,32 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -47,6 +67,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +80,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -77,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -95,6 +118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -113,6 +137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -162,6 +188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -180,6 +207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -201,6 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -221,6 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -241,6 +271,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -261,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -281,6 +313,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +325,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -310,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +356,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -339,6 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -357,6 +394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -375,6 +413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -393,6 +432,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -440,6 +480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -458,6 +499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -476,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -494,6 +537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +549,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -523,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -541,6 +587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -560,6 +607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -578,6 +626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -597,6 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -615,6 +665,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -644,6 +696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -662,6 +715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -685,6 +739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -703,6 +758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -721,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -739,6 +796,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -757,6 +815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -786,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -816,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -844,6 +908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -862,6 +927,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -885,6 +951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -903,6 +970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -922,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -941,6 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -960,6 +1030,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -980,6 +1051,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -999,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1033,6 +1106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1053,6 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1082,6 +1158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1102,6 +1179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1120,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1150,6 +1230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1168,6 +1249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1186,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1283,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1218,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1236,6 +1321,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1254,6 +1340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1272,6 +1359,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1314,6 +1404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1356,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1464,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1388,6 +1483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1406,6 +1502,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1425,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1448,6 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1466,6 +1565,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1484,6 +1584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1503,6 +1604,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1523,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1571,6 +1677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1589,6 +1696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1607,6 +1715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1626,6 +1735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1644,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1662,6 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1681,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1699,6 +1812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1717,6 +1831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1735,6 +1850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1754,6 +1870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1903,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1915,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1813,6 +1934,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +1946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1842,6 +1965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1861,6 +1985,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2072,19 +2197,21 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>product_source</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2095,25 +2222,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2159,157 +2286,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2338,12 +2314,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2352,8 +2330,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2384,194 +2397,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2672,254 +2499,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2928,10 +2513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2939,21 +2520,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2967,89 +2536,54 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3122,6 +2656,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3379,171 +2916,167 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.5">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="66">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="33">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -3555,95 +3088,94 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="3:5">
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="3:5" ht="49.5">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.7111111111111" customWidth="1"/>
-    <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
-    <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
-    <col min="9" max="9" width="26.7111111111111" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3657,7 +3189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:11">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3668,7 +3200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3699,8 +3231,11 @@
       <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="5:10">
+      <c r="K7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
         <v>60</v>
       </c>
@@ -3719,8 +3254,11 @@
       <c r="J8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="5:10">
+      <c r="K8" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="E9" t="s">
         <v>66</v>
       </c>
@@ -3739,28 +3277,34 @@
       <c r="J9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="5:10">
-      <c r="E10" s="8" t="s">
+      <c r="K9" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1">
+      <c r="E10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="5:10">
+      <c r="K10" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="E11" t="s">
         <v>74</v>
       </c>
@@ -3779,8 +3323,11 @@
       <c r="J11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="5:10">
+      <c r="K11" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="E12" t="s">
         <v>78</v>
       </c>
@@ -3799,8 +3346,11 @@
       <c r="J12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="5:10">
+      <c r="K12" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="E13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3819,31 +3369,33 @@
       <c r="J13" s="5">
         <v>0</v>
       </c>
+      <c r="K13" s="36" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="19.7111111111111" customWidth="1"/>
-    <col min="6" max="6" width="15.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="14.2814814814815" customWidth="1"/>
-    <col min="8" max="8" width="14.1407407407407" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3915,7 +3467,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="1:15">
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
         <v>98</v>
@@ -3932,7 +3484,7 @@
       <c r="I8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="5"/>
@@ -3947,7 +3499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3976,7 +3528,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="5:9">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>111</v>
       </c>
@@ -3991,11 +3543,11 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="5:9">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>111</v>
       </c>
@@ -4010,11 +3562,11 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -4029,11 +3581,11 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>111</v>
       </c>
@@ -4048,11 +3600,11 @@
         <f>E8</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>111</v>
       </c>
@@ -4071,7 +3623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>111</v>
       </c>
@@ -4091,8 +3643,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>